--- a/Examples/Indice.xlsx
+++ b/Examples/Indice.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15C59A-C560-49C1-A186-CA7800AE911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C305545-1C6E-40AB-A64F-24A12AAFF857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1500" windowWidth="24390" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="76">
   <si>
     <t>bfgt</t>
   </si>
@@ -69,9 +80,6 @@
     <t>H2SO4</t>
   </si>
   <si>
-    <t>kotas</t>
-  </si>
-  <si>
     <t>ngep</t>
   </si>
   <si>
@@ -247,6 +255,15 @@
   </si>
   <si>
     <t>Regenerative Rankine Cycle with reheat</t>
+  </si>
+  <si>
+    <t>scgp</t>
+  </si>
+  <si>
+    <t>vcr</t>
+  </si>
+  <si>
+    <t>Simple Refrigeration plant</t>
   </si>
 </sst>
 </file>
@@ -571,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,45 +602,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,19 +648,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -651,19 +668,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,22 +688,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,16 +711,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -711,25 +728,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -737,22 +754,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,22 +777,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -783,16 +800,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,16 +817,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -817,13 +834,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,25 +848,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,19 +874,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,19 +894,19 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,371 +914,388 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
